--- a/output/data/classificationTable.xlsx
+++ b/output/data/classificationTable.xlsx
@@ -116,6 +116,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1C6CAA"/>
+      <color rgb="FF8B2D4B"/>
+      <color rgb="FF969696"/>
+      <color rgb="FF333333"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -146,7 +154,21 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:explosion val="10"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8B2D4B"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:explosion val="5"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Daten!$B$3:$B$4</c:f>
@@ -243,6 +265,31 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="1C6CAA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8B2D4B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr/>
